--- a/resources/thermophysical-properties/supcrt-gas-properties.xlsx
+++ b/resources/thermophysical-properties/supcrt-gas-properties.xlsx
@@ -122,18 +122,7 @@
     <t>Ne(g)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Ref: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">http://webserver.dmt.upm.es/~isidoro/dat1/eGAS.pdf</t>
-    </r>
+    <t>Ref: http://webserver.dmt.upm.es/~isidoro/dat1/eGAS.pdf</t>
   </si>
   <si>
     <t>Ammonia</t>
@@ -191,14 +180,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -220,12 +212,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -270,12 +264,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -299,33 +309,33 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6071428571429"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.6326530612245"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.8520408163265"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3316326530612"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -336,13 +346,13 @@
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="4" t="n">
         <v>150.9</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="4" t="n">
         <v>48.98</v>
       </c>
     </row>
@@ -353,13 +363,13 @@
       <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.012</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="4" t="n">
         <v>190.6</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="4" t="n">
         <v>45.99</v>
       </c>
     </row>
@@ -370,13 +380,13 @@
       <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.444</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="4" t="n">
         <v>694.3</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="4" t="n">
         <v>61.3</v>
       </c>
     </row>
@@ -387,6 +397,8 @@
       <c r="B5" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -395,6 +407,8 @@
       <c r="B6" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -403,6 +417,8 @@
       <c r="B7" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -411,13 +427,13 @@
       <c r="B8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>0.048</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="4" t="n">
         <v>132.9</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="4" t="n">
         <v>34.99</v>
       </c>
     </row>
@@ -428,13 +444,13 @@
       <c r="B9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>0.224</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="4" t="n">
         <v>304.2</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="4" t="n">
         <v>73.83</v>
       </c>
     </row>
@@ -445,13 +461,13 @@
       <c r="B10" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>0.087</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="4" t="n">
         <v>282.3</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="4" t="n">
         <v>50.4</v>
       </c>
     </row>
@@ -462,13 +478,13 @@
       <c r="B11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>-0.216</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="4" t="n">
         <v>33.19</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="4" t="n">
         <v>13.13</v>
       </c>
     </row>
@@ -479,13 +495,13 @@
       <c r="B12" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>0.345</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="4" t="n">
         <v>647.1</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="4" t="n">
         <v>220.55</v>
       </c>
     </row>
@@ -496,13 +512,13 @@
       <c r="B13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>0.094</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="4" t="n">
         <v>373.5</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="4" t="n">
         <v>89.63</v>
       </c>
     </row>
@@ -513,13 +529,13 @@
       <c r="B14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>-0.39</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="4" t="n">
         <v>5.2</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="4" t="n">
         <v>2.28</v>
       </c>
     </row>
@@ -530,13 +546,13 @@
       <c r="B15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="4" t="n">
         <v>209.4</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="4" t="n">
         <v>55.02</v>
       </c>
     </row>
@@ -547,13 +563,13 @@
       <c r="B16" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>0.038</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="4" t="n">
         <v>126.2</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="4" t="n">
         <v>34</v>
       </c>
     </row>
@@ -564,16 +580,16 @@
       <c r="B17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -584,13 +600,13 @@
       <c r="B18" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>0.253</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="4" t="n">
         <v>405.7</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="4" t="n">
         <v>112.8</v>
       </c>
     </row>
@@ -601,13 +617,13 @@
       <c r="B19" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>0.022</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="4" t="n">
         <v>154.6</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="4" t="n">
         <v>50.43</v>
       </c>
     </row>
@@ -618,13 +634,13 @@
       <c r="B20" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="4" t="n">
         <v>377</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="4" t="n">
         <v>62.8</v>
       </c>
       <c r="G20" s="0" t="s">
@@ -638,6 +654,8 @@
       <c r="B21" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -646,13 +664,13 @@
       <c r="B22" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>0.245</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="4" t="n">
         <v>430.8</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="4" t="n">
         <v>78.84</v>
       </c>
     </row>
@@ -663,13 +681,13 @@
       <c r="B23" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="4" t="n">
         <v>289.7</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="4" t="n">
         <v>58.4</v>
       </c>
     </row>
@@ -680,13 +698,13 @@
       <c r="B24" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>0.583</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="4" t="n">
         <v>180.2</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="4" t="n">
         <v>64.8</v>
       </c>
     </row>
@@ -697,19 +715,19 @@
       <c r="B25" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>0.141</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="4" t="n">
         <v>309.6</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="4" t="n">
         <v>72.45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G17" r:id="rId1" display="http://webserver.dmt.upm.es/~isidoro/dat1/eGAS.pdf"/>
+    <hyperlink ref="G17" r:id="rId1" display="Ref: http://webserver.dmt.upm.es/~isidoro/dat1/eGAS.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/resources/thermophysical-properties/supcrt-gas-properties.xlsx
+++ b/resources/thermophysical-properties/supcrt-gas-properties.xlsx
@@ -309,7 +309,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -397,8 +397,15 @@
       <c r="B5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -407,8 +414,15 @@
       <c r="B6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -417,8 +431,15 @@
       <c r="B7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -654,8 +675,15 @@
       <c r="B21" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
